--- a/яндекс переводчик.xlsx
+++ b/яндекс переводчик.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="140">
   <si>
     <t>Заголовок</t>
   </si>
@@ -474,6 +474,23 @@
   <si>
     <t>1. Открыть страницу https://www.yandex.ru/search/?text=%D0%BF%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B4%D1%87%D0%B8%D0%BA+%D0%BE%D0%BD%D0%BB%D0%B0%D0%B9%D0%BD&amp;lr=213&amp;src=suggest_Pers
 2.Ввести валидный текст в поле ввода.</t>
+  </si>
+  <si>
+    <t>Поле вывода. В поле вывода отображается перевод текста. Позитивный</t>
+  </si>
+  <si>
+    <t>1. Установить курсор в поле ввода
+2. Ввести любой валидный текст</t>
+  </si>
+  <si>
+    <t>1. В поле ввода отображается плейсхолдер "Введите текст"
+2. В поле ввода отображается введенный текст. В поле вывода отображается перевод текста из поля ввода</t>
+  </si>
+  <si>
+    <t>Открыта страница ( https://www.yandex.ru/search/?text=%D0%BF%D0%B5%D1%80%D0%B5%D0%B2%D0%BE%D0%B4%D1%87%D0%B8%D0%BA+%D0%BE%D0%BD%D0%BB%D0%B0%D0%B9%D0%BD&amp;lr=213&amp;src=suggest_Pers ) колдунщик онлайн-перевода, который появляется по запросу "переводчик онлайн".  В поле языка переводимого текста автоматически выбран язык "Английский". В поле языка переведённого текста автоматически выбран язык "Русский".</t>
+  </si>
+  <si>
+    <t>Y-28</t>
   </si>
 </sst>
 </file>
@@ -866,7 +883,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,24 +942,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>
@@ -956,16 +973,16 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>10</v>
@@ -979,16 +996,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
@@ -1002,16 +1019,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
@@ -1022,19 +1039,19 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>10</v>
@@ -1045,19 +1062,19 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>10</v>
@@ -1071,22 +1088,22 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1094,22 +1111,22 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
@@ -1117,16 +1134,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>10</v>
@@ -1140,87 +1157,87 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="9" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="9" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="9" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>48</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="9" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1232,16 +1249,16 @@
         <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>10</v>
@@ -1255,16 +1272,16 @@
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>10</v>
@@ -1278,16 +1295,16 @@
         <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>10</v>
@@ -1301,16 +1318,16 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>10</v>
@@ -1324,16 +1341,16 @@
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>10</v>
@@ -1347,16 +1364,16 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>10</v>
@@ -1370,22 +1387,22 @@
         <v>6</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>94</v>
       </c>
@@ -1393,142 +1410,158 @@
         <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="9" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="G24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="9" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="9" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="G25" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="9" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D26" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E26" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="9" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="G26" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="9" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
